--- a/res/testcase/preferential/payVoucher.xlsx
+++ b/res/testcase/preferential/payVoucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10950" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="004_setStop" sheetId="4" r:id="rId5"/>
     <sheet name="005_filterPayVorcher" sheetId="7" r:id="rId6"/>
     <sheet name="006_delPayVoucher" sheetId="6" r:id="rId7"/>
+    <sheet name="007_downloadQRcode" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>动作</t>
   </si>
@@ -536,6 +537,18 @@
   </si>
   <si>
     <t>PayVoucherPage.删除优惠</t>
+  </si>
+  <si>
+    <t>输入搜索</t>
+  </si>
+  <si>
+    <t>UI支付优惠管理勿动</t>
+  </si>
+  <si>
+    <t>点击下载内部二维码</t>
+  </si>
+  <si>
+    <t>PayVoucherPage.下载内部二维码</t>
   </si>
 </sst>
 </file>
@@ -543,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -565,52 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,6 +593,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -632,7 +629,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -640,7 +637,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -662,18 +674,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,16 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +736,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,37 +850,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,121 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,41 +945,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,17 +999,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1024,8 +1007,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,10 +1050,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,16 +1062,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,115 +1080,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,7 +2343,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3008,8 +3021,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3185,7 +3198,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3385,4 +3398,244 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C10 C2:C4 C14:C15">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 B12 C12 C13">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/preferential/payVoucher.xlsx
+++ b/res/testcase/preferential/payVoucher.xlsx
@@ -335,7 +335,7 @@
     <t>PayVoucherPage.选择停车场</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>9</t>
@@ -556,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -578,14 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,8 +592,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,15 +645,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,25 +690,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,8 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,45 +716,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +736,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,13 +814,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,31 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,61 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,31 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,19 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,19 +947,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,16 +980,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -998,17 +1007,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,16 +1028,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1050,10 +1050,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,133 +1062,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,7 +1290,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="B6:E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2813,7 +2813,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3022,7 +3022,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3198,7 +3198,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3406,7 +3406,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
